--- a/medicine/Enfance/Langelot_et_la_Voyante/Langelot_et_la_Voyante.xlsx
+++ b/medicine/Enfance/Langelot_et_la_Voyante/Langelot_et_la_Voyante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot et la Voyante est le vingt-quatrième roman de la série Langelot écrite par le Lieutenant X (pseudonyme de Vladimir Volkoff). Ce roman a été publié pour la première fois en 1975, aux éditions Hachette, dans la collection Bibliothèque verte. 
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>« Les Gentils »
 Langelot (alias Estrello, alias Sorcière 2) : orphelin, agent du Service National d'Information Fonctionnelle (SNIF), blond, 1,68 m, mince, « traits menus mais durs ».
@@ -552,7 +566,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La France doit procéder de manière imminente au lancement d'un moderne et tout nouveau sous-marin nucléaire : le Trionyx. Or, des informations très confidentielles relatives à ce lancement parviennent à ses ennemis. Vulnérable le temps de sa mise à la mer, le Trionyx court le risque d'être torpillé dès son lancement.
 Pour Langelot, la mission semble au départ de pure routine : procéder, avec son camarade, l'aspirant Gaspard, à la filature de M. Caparadossi, directeur des archives au « Ministère du progrès scientifique ». En raison de sa propre maladresse, Langelot entre très vite en contact avec l’homme suivi : il ne peut plus procéder à la filature. Le capitaine Montferrand est déçu ; il affecte temporairement Langelot au tri de la documentation du Service.
@@ -589,14 +605,16 @@
           <t>Remarques autour du roman</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Trionyx est le nom fictif du nouveau sous-marin français. Le Trionyx est une espèce de tortue marine.
 La fuite d'informations militaires confidentielles, émanant de fonctionnaires, constitue le thème central du roman.
 Dans les années 1970, la France disposait d'une flotte de sous-marins d'attaque conventionnels. Le premier sous-marin atomique (lanceur d'engins) date de janvier 1972 (Le Redoutable), trois années avant la parution du roman. Il est construit dans la rade de Brest. Le premier sous-marin nucléaire d'attaque date de 1983, bien après la parution du livre.
 Dans sa mission suivante, Langelot sur la Côte d'Azur, Langelot retrouve le Trionyx, qui aide de manière déterminante à détecter une bombe atomique déposée par un terroriste.
 « 4584 » ou « Pays Noir » désigne en code un pays ennemi de la France qui revient à plusieurs reprises dans les missions de Langelot : ainsi dans Langelot et la danseuse ou dans Langelot passe à l'ennemi. C'est un pays totalitaire communiste, européen, qui entretient un réseau international d'espionnage, englobant la France.
-Dans les années 1970, la CIA s'est intéressée aux possibilités de la voyance en matière d'espionnage : c'est le projet Stargate[1], abandonné en 1995.</t>
+Dans les années 1970, la CIA s'est intéressée aux possibilités de la voyance en matière d'espionnage : c'est le projet Stargate, abandonné en 1995.</t>
         </is>
       </c>
     </row>
